--- a/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
+++ b/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
@@ -188,10 +188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.rsaleAmount3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.saleAmount5}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -413,6 +409,10 @@
   </si>
   <si>
     <t>${obj.profitAmount31}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.saleAmount3}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +598,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,21 +621,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,7 +929,7 @@
   <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1000,320 +1000,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="6"/>
+      <c r="X1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="6" t="s">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="6" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="6" t="s">
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="6" t="s">
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="6" t="s">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="6" t="s">
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="6" t="s">
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="6" t="s">
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="6" t="s">
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="6" t="s">
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="6" t="s">
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="6" t="s">
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="6" t="s">
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="6" t="s">
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="6" t="s">
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="6" t="s">
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="6" t="s">
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="6" t="s">
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="6" t="s">
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="BK1" s="7"/>
+      <c r="BK1" s="6"/>
     </row>
-    <row r="2" spans="1:63" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK2" s="9" t="s">
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1325,187 +1325,187 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1608,6 +1608,30 @@
     <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="AV1:AW1"/>
@@ -1616,30 +1640,6 @@
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
+++ b/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
@@ -32,14 +32,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="BK3")</t>
+jx:area(lastCell="BK4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,28 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="BK3")</t>
+jx:each(items="reportList" var="obj" lastCell="BK</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>")</t>
         </r>
       </text>
     </comment>
@@ -59,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t>店铺     日期</t>
   </si>
@@ -413,6 +435,10 @@
   </si>
   <si>
     <t>${obj.saleAmount3}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺日销售总额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +503,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -498,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -588,11 +647,20 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -603,6 +671,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,6 +695,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -999,516 +1076,582 @@
     <col min="64" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-      <c r="P1" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="R1" s="6"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="T1" s="6"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
-      <c r="AB1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
-      <c r="AD1" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
-      <c r="AH1" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
-      <c r="AJ1" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="AL1" s="6"/>
       <c r="AM1" s="6"/>
-      <c r="AN1" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="AN1" s="6"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="AP1" s="6"/>
       <c r="AQ1" s="6"/>
-      <c r="AR1" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="AR1" s="6"/>
       <c r="AS1" s="6"/>
-      <c r="AT1" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
-      <c r="AV1" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="AV1" s="6"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="AX1" s="6"/>
       <c r="AY1" s="6"/>
-      <c r="AZ1" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="AZ1" s="6"/>
       <c r="BA1" s="6"/>
-      <c r="BB1" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="BB1" s="6"/>
       <c r="BC1" s="6"/>
-      <c r="BD1" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="BD1" s="6"/>
       <c r="BE1" s="6"/>
-      <c r="BF1" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="BF1" s="6"/>
       <c r="BG1" s="6"/>
-      <c r="BH1" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="BH1" s="6"/>
       <c r="BI1" s="6"/>
-      <c r="BJ1" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="BJ1" s="6"/>
       <c r="BK1" s="6"/>
     </row>
-    <row r="2" spans="1:63" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>32</v>
-      </c>
+    <row r="2" spans="1:63" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="X2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK2" s="8"/>
     </row>
-    <row r="3" spans="1:63" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:63" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y4" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AM4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AN4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AP4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AQ4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AV4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="AZ4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BA4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BB4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BC4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BD4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BE4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BF4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BG4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BH4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BI4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BJ4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BK4" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1516,7 +1659,7 @@
     <row r="9" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1606,40 +1749,42 @@
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="BH1:BI1"/>
-    <mergeCell ref="BJ1:BK1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="BF1:BG1"/>
+  <mergeCells count="33">
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="A1:BK1"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
+++ b/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.saleAmount4}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.saleAmount8}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -439,6 +435,10 @@
   </si>
   <si>
     <t>店铺日销售总额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.saleAmount7}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -672,11 +672,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,8 +693,11 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1023,9 +1023,9 @@
     <col min="10" max="10" width="23.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="37.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="15" max="15" width="26.375" style="1" customWidth="1"/>
     <col min="16" max="16" width="30.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="17.125" style="1" customWidth="1"/>
@@ -1077,203 +1077,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
+      <c r="A1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
     </row>
     <row r="2" spans="1:63" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="7" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="7" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="7" t="s">
+      <c r="W2" s="7"/>
+      <c r="X2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="7" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="7" t="s">
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="7" t="s">
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="7" t="s">
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="7" t="s">
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="7" t="s">
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="7" t="s">
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="7" t="s">
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="7" t="s">
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="7" t="s">
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="7" t="s">
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="7" t="s">
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="7" t="s">
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="7" t="s">
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="7" t="s">
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="7" t="s">
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BK2" s="8"/>
+      <c r="BK2" s="7"/>
     </row>
     <row r="3" spans="1:63" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1463,193 +1463,193 @@
     </row>
     <row r="4" spans="1:63" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="K4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+      <c r="S4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="T4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="U4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="W4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="X4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="Y4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="Z4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="AA4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AB4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AC4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AD4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AE4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AF4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AG4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AH4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AG4" s="13" t="s">
+      <c r="AI4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AK4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AL4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AM4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AN4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AO4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AN4" s="13" t="s">
+      <c r="AP4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AO4" s="13" t="s">
+      <c r="AQ4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AP4" s="13" t="s">
+      <c r="AR4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AQ4" s="13" t="s">
+      <c r="AS4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AR4" s="13" t="s">
+      <c r="AT4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AS4" s="13" t="s">
+      <c r="AU4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AT4" s="13" t="s">
+      <c r="AV4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AU4" s="13" t="s">
+      <c r="AW4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AV4" s="13" t="s">
+      <c r="AX4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AW4" s="13" t="s">
+      <c r="AY4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AX4" s="13" t="s">
+      <c r="AZ4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AY4" s="13" t="s">
+      <c r="BA4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AZ4" s="13" t="s">
+      <c r="BB4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BA4" s="13" t="s">
+      <c r="BC4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="BB4" s="13" t="s">
+      <c r="BD4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BC4" s="13" t="s">
+      <c r="BE4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="BD4" s="13" t="s">
+      <c r="BF4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BE4" s="13" t="s">
+      <c r="BG4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BF4" s="13" t="s">
+      <c r="BH4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BG4" s="13" t="s">
+      <c r="BI4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="BH4" s="13" t="s">
+      <c r="BJ4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BI4" s="13" t="s">
+      <c r="BK4" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="BJ4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK4" s="13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1752,23 +1752,6 @@
     <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="A1:BK1"/>
     <mergeCell ref="BH2:BI2"/>
     <mergeCell ref="BJ2:BK2"/>
@@ -1785,6 +1768,23 @@
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
+++ b/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,10 +31,11 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="BK5")</t>
+jx:area(lastCell="BK4")</t>
         </r>
       </text>
     </comment>
@@ -45,6 +46,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
   <si>
     <t>店铺日销售总额</t>
   </si>
@@ -308,25 +310,6 @@
     <t>${obj.profitAmount29}</t>
   </si>
   <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(B4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(C4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(D4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(E4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>40号</t>
   </si>
   <si>
@@ -343,233 +326,14 @@
   </si>
   <si>
     <t>${obj.profitAmount41}</t>
-  </si>
-  <si>
-    <t>$[SUM(F4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(G4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(H4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(I4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(J4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(K4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(L4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(M4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(N4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(O4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(P4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(Q4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(R4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(S4)]</t>
-  </si>
-  <si>
-    <t>$[SUM(T4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(U4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(V4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(W4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(X4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(Y4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(Z4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AA4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AB4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AC4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AD4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AE4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AF4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AG4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AH4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AI4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AJ4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AK4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AL4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AM4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AN4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AO4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AP4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AQ4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AR4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AS4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AT4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AU4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AV4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AW4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AX4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AY4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(AZ4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BA4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BB4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BC4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BD4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BE4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BF4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BG4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BH4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BI4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BJ4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(BK4)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -583,18 +347,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -602,6 +369,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -609,6 +377,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -616,6 +385,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -624,23 +394,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -709,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -730,12 +504,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,7 +513,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,72 +526,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF99CCFF"/>
     </mruColors>
@@ -844,7 +549,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -879,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,7 +619,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1123,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="DO6" sqref="DO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1136,203 +841,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
     </row>
     <row r="2" spans="1:63" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="10" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="10" t="s">
+      <c r="U2" s="9"/>
+      <c r="V2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="10" t="s">
+      <c r="W2" s="9"/>
+      <c r="X2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="10" t="s">
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="10" t="s">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="10" t="s">
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="10" t="s">
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="10" t="s">
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="10" t="s">
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="10" t="s">
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="10" t="s">
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="10" t="s">
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="10" t="s">
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="10" t="s">
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="10" t="s">
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="10" t="s">
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="10" t="s">
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="10" t="s">
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="10" t="s">
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="10" t="s">
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK2" s="11"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2" s="9"/>
     </row>
     <row r="3" spans="1:63" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1699,216 +1404,26 @@
         <v>82</v>
       </c>
       <c r="BH4" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BI4" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BJ4" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="BK4" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG5" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH5" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ5" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK5" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO5" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP5" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ5" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR5" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS5" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT5" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU5" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV5" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW5" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX5" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AY5" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AZ5" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA5" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="BB5" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="BC5" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="BD5" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="BE5" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="BF5" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG5" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH5" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="BI5" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BK5" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
+    <row r="5" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1998,9 +1513,25 @@
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="A1:BK1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="BJ2:BK2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AZ2:BA2"/>
@@ -2017,23 +1548,6 @@
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ2:AK2"/>
     <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="A1:BK1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
+++ b/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t>店铺日销售总额</t>
   </si>
@@ -154,178 +154,592 @@
     <t>${obj.branchName}</t>
   </si>
   <si>
+    <t>${obj.saleAmount6}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount6}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount7}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount7}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount8}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount8}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount9}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount9}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount10}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount10}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount11}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount11}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount12}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount12}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount14}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount14}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount15}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount15}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount16}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount16}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount17}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount17}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount18}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount18}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount19}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount19}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount20}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount20}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount21}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount21}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount22}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount22}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount24}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount24}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount25}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount25}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount26}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount26}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount27}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount27}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount28}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount28}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount29}</t>
+  </si>
+  <si>
+    <t>${obj.profitAmount29}</t>
+  </si>
+  <si>
+    <t>3号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.saleAmount1}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount1}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount2}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount2}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount4}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount4}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount5}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount5}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount6}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount6}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount7}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount7}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount8}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount8}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount9}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount9}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount10}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount10}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount11}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount11}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount12}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount12}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount14}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount14}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount15}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount15}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount16}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount16}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount17}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount17}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount18}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount18}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount19}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount19}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount20}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount20}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount21}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount21}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount22}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount22}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount24}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount24}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount25}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount25}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount26}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount26}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount27}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount27}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount28}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount28}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount29}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount29}</t>
-  </si>
-  <si>
-    <t>40号</t>
-  </si>
-  <si>
-    <t>41号</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount40}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount40}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount41}</t>
-  </si>
-  <si>
-    <t>${obj.profitAmount41}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>profitAmount1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>saleAmount2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.profitAmount2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>saleAmount3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>profitAmount3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>saleAmount4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>profitAmount4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>saleAmount5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>profitAmount5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.saleAmount1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.profitAmount1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>23号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.saleAmount2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.profitAmount2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>31号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.saleAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.profitAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.saleAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.profitAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -333,7 +747,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -483,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -495,21 +909,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,6 +927,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,589 +1249,590 @@
   <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DO6" sqref="DO6"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="63" width="12.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="4" customWidth="1"/>
+    <col min="2" max="63" width="12.625" style="8" customWidth="1"/>
     <col min="64" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
     </row>
     <row r="2" spans="1:63" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="8" t="s">
+      <c r="S2" s="13"/>
+      <c r="T2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="8" t="s">
+      <c r="U2" s="13"/>
+      <c r="V2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="8" t="s">
+      <c r="W2" s="13"/>
+      <c r="X2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="8" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="8" t="s">
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="8" t="s">
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="8" t="s">
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="8" t="s">
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="8" t="s">
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="8" t="s">
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="8" t="s">
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="8" t="s">
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="8" t="s">
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="8" t="s">
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="8" t="s">
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="8" t="s">
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK2" s="9"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK2" s="13"/>
     </row>
     <row r="3" spans="1:63" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="BI3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="BJ3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK3" s="5" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:63" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="M4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="N4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="O4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="P4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="Q4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="R4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="S4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="T4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="U4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="V4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="W4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="X4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Y4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="AC4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="AD4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="AE4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="AF4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="AG4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="AH4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="AI4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AK4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AL4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AM4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AN4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AO4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AP4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AQ4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AR4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AS4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AT4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AW4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AX4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AY4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AZ4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AQ4" s="7" t="s">
+      <c r="BA4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AR4" s="7" t="s">
+      <c r="BB4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="BC4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="BD4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AU4" s="7" t="s">
+      <c r="BE4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AV4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX4" s="7" t="s">
+      <c r="BF4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AY4" s="7" t="s">
+      <c r="BG4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AZ4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="BG4" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="BH4" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="BI4" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="BJ4" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="BK4" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1515,8 +1934,6 @@
     <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AN2:AO2"/>
     <mergeCell ref="A1:BK1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -1529,29 +1946,31 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="BJ2:BK2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="BB2:BC2"/>
     <mergeCell ref="BD2:BE2"/>
     <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BH2:BI2"/>
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AN2:AO2"/>
     <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BH2:BI2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
+++ b/src/main/resources/template/excel/export/storeDaySaleReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -746,8 +746,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -912,27 +913,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1249,214 +1250,214 @@
   <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.625" style="4" customWidth="1"/>
-    <col min="2" max="63" width="12.625" style="8" customWidth="1"/>
+    <col min="2" max="63" width="12.625" style="7" customWidth="1"/>
     <col min="64" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
     </row>
     <row r="2" spans="1:63" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="12" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="12" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="12" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="12" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="13"/>
-      <c r="X2" s="12" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="12" t="s">
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="12" t="s">
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="12" t="s">
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="12" t="s">
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="12" t="s">
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="12" t="s">
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="12" t="s">
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="12" t="s">
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="12" t="s">
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="12" t="s">
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="12" t="s">
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="12" t="s">
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="12" t="s">
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="12" t="s">
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="12" t="s">
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="12" t="s">
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="12" t="s">
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="12" t="s">
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="12" t="s">
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BK2" s="13"/>
+      <c r="BK2" s="11"/>
     </row>
     <row r="3" spans="1:63" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
@@ -1648,34 +1649,34 @@
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="13" t="s">
         <v>85</v>
       </c>
       <c r="L4" s="14" t="s">
@@ -1720,10 +1721,10 @@
       <c r="Y4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="13" t="s">
         <v>87</v>
       </c>
       <c r="AB4" s="14" t="s">
@@ -1780,10 +1781,10 @@
       <c r="AS4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AT4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AU4" s="7" t="s">
+      <c r="AU4" s="13" t="s">
         <v>91</v>
       </c>
       <c r="AV4" s="14" t="s">
@@ -1822,16 +1823,16 @@
       <c r="BG4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="BH4" s="7" t="s">
+      <c r="BH4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="BI4" s="7" t="s">
+      <c r="BI4" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="BJ4" s="7" t="s">
+      <c r="BJ4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BK4" s="7" t="s">
+      <c r="BK4" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1934,6 +1935,23 @@
     <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="A1:BK1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -1950,23 +1968,6 @@
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="BB2:BC2"/>
     <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BH2:BI2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
